--- a/_site/posts/Controle-sintetico/Replicacao_Alemanha_CORRIGIDA_COM_V.xlsx
+++ b/_site/posts/Controle-sintetico/Replicacao_Alemanha_CORRIGIDA_COM_V.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f01953baf6c2ab2/Documentos/R/R_projects/economia_no_quarto/APP/posts/Controle-sintetico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{776F4BAD-9904-400E-81BF-33D923D9AB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{776F4BAD-9904-400E-81BF-33D923D9AB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10C870D0-78E6-4BED-8C70-8B3D261DAC9B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,18 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={795EE9A3-0373-4794-8100-45F15E119B94}</author>
+    <author>tc={15735228-E86B-4302-B05F-1D8C53D91433}</author>
   </authors>
   <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{795EE9A3-0373-4794-8100-45F15E119B94}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    NO R COMPUTA-SE DE MANEIRA NORMALIZADA</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{15735228-E86B-4302-B05F-1D8C53D91433}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -706,6 +715,9 @@
   <threadedComment ref="B3" dT="2025-11-12T13:47:02.75" personId="{F0307B69-9F57-4573-874B-6532073D302C}" id="{795EE9A3-0373-4794-8100-45F15E119B94}">
     <text>NO R COMPUTA-SE DE MANEIRA NORMALIZADA</text>
   </threadedComment>
+  <threadedComment ref="C3" dT="2025-11-12T14:09:38.51" personId="{F0307B69-9F57-4573-874B-6532073D302C}" id="{15735228-E86B-4302-B05F-1D8C53D91433}">
+    <text>NO R COMPUTA-SE DE MANEIRA NORMALIZADA</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -13504,7 +13516,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
